--- a/data/pca/factorExposure/factorExposure_2011-04-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-04-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.005255095560428083</v>
+        <v>-0.01149943781828091</v>
       </c>
       <c r="C2">
-        <v>-0.007287227678474403</v>
+        <v>-0.0008292462360436388</v>
       </c>
       <c r="D2">
-        <v>-0.04703820011118599</v>
+        <v>0.001653083265194508</v>
       </c>
       <c r="E2">
-        <v>0.002119227151370096</v>
+        <v>0.01809192005474069</v>
       </c>
       <c r="F2">
-        <v>-0.01341313178222957</v>
+        <v>-0.02880922825647853</v>
       </c>
       <c r="G2">
-        <v>-0.02441930075864005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.002841639723897249</v>
+      </c>
+      <c r="H2">
+        <v>-0.01409956496044695</v>
+      </c>
+      <c r="I2">
+        <v>0.04950346054893345</v>
+      </c>
+      <c r="J2">
+        <v>-0.05247882734610578</v>
+      </c>
+      <c r="K2">
+        <v>-0.002324974769545648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.1036225468712779</v>
+        <v>-0.116248470162787</v>
       </c>
       <c r="C4">
-        <v>-0.02750504365941727</v>
+        <v>-0.0596716148340638</v>
       </c>
       <c r="D4">
-        <v>-0.04704785823235357</v>
+        <v>-0.007254370809102175</v>
       </c>
       <c r="E4">
-        <v>0.05954088085829977</v>
+        <v>0.01010624132239421</v>
       </c>
       <c r="F4">
-        <v>-0.03880633237309968</v>
+        <v>-0.02079681665567866</v>
       </c>
       <c r="G4">
-        <v>-0.03378476206478573</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.06891066712974023</v>
+      </c>
+      <c r="H4">
+        <v>-0.1499762596792905</v>
+      </c>
+      <c r="I4">
+        <v>0.01265763156617017</v>
+      </c>
+      <c r="J4">
+        <v>0.03872334478472388</v>
+      </c>
+      <c r="K4">
+        <v>-0.01946264578999799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1278039429027076</v>
+        <v>-0.1241120349542441</v>
       </c>
       <c r="C6">
-        <v>-0.02559160975941791</v>
+        <v>-0.01133622831776169</v>
       </c>
       <c r="D6">
-        <v>-0.02707646362599891</v>
+        <v>0.008833296604183074</v>
       </c>
       <c r="E6">
-        <v>-0.006874693002819721</v>
+        <v>-0.02431120087176626</v>
       </c>
       <c r="F6">
-        <v>0.1444902642436121</v>
+        <v>-0.006846248951708131</v>
       </c>
       <c r="G6">
-        <v>0.1365570100338095</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.08471017409007593</v>
+      </c>
+      <c r="H6">
+        <v>-0.02993426038602593</v>
+      </c>
+      <c r="I6">
+        <v>-0.2141299399151241</v>
+      </c>
+      <c r="J6">
+        <v>0.3416717553745455</v>
+      </c>
+      <c r="K6">
+        <v>0.1958666609760569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.09190313862763456</v>
+        <v>-0.07673156516592775</v>
       </c>
       <c r="C7">
-        <v>-0.04176594158264691</v>
+        <v>-0.0610765119117565</v>
       </c>
       <c r="D7">
-        <v>-0.03909301357861793</v>
+        <v>0.02702889164810876</v>
       </c>
       <c r="E7">
-        <v>0.02441968058004276</v>
+        <v>0.01948166957745113</v>
       </c>
       <c r="F7">
-        <v>0.02534453953247938</v>
+        <v>-0.04322280448069384</v>
       </c>
       <c r="G7">
-        <v>-0.02411388023648377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02351341523264012</v>
+      </c>
+      <c r="H7">
+        <v>-0.04471145799782005</v>
+      </c>
+      <c r="I7">
+        <v>-0.01223595051391778</v>
+      </c>
+      <c r="J7">
+        <v>0.0005184117091227323</v>
+      </c>
+      <c r="K7">
+        <v>-0.102439112509717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.04306380477602716</v>
+        <v>-0.05274055845285858</v>
       </c>
       <c r="C8">
-        <v>0.02230699403267619</v>
+        <v>-0.01157358216682166</v>
       </c>
       <c r="D8">
-        <v>-0.08355929639947356</v>
+        <v>0.01635969973356256</v>
       </c>
       <c r="E8">
-        <v>0.08834699590631435</v>
+        <v>0.0101585531223269</v>
       </c>
       <c r="F8">
-        <v>-0.01879062167774009</v>
+        <v>-0.01308756557664398</v>
       </c>
       <c r="G8">
-        <v>-0.1276190699064376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.08643570845614863</v>
+      </c>
+      <c r="H8">
+        <v>-0.1190510778310864</v>
+      </c>
+      <c r="I8">
+        <v>0.00842366299265454</v>
+      </c>
+      <c r="J8">
+        <v>0.03673345787479755</v>
+      </c>
+      <c r="K8">
+        <v>-0.02816141771867147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.09404523318029118</v>
+        <v>-0.08683512247222701</v>
       </c>
       <c r="C9">
-        <v>-0.03637751922847333</v>
+        <v>-0.05252490300090738</v>
       </c>
       <c r="D9">
-        <v>-0.03802877495906608</v>
+        <v>0.005238877591486554</v>
       </c>
       <c r="E9">
-        <v>0.04757577157273526</v>
+        <v>0.01746389143371243</v>
       </c>
       <c r="F9">
-        <v>-0.0260748914554669</v>
+        <v>-0.01322482325201274</v>
       </c>
       <c r="G9">
-        <v>-0.07150190188617578</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.06387561309171623</v>
+      </c>
+      <c r="H9">
+        <v>-0.1240180077574271</v>
+      </c>
+      <c r="I9">
+        <v>-0.01040754863465539</v>
+      </c>
+      <c r="J9">
+        <v>0.01192285205968311</v>
+      </c>
+      <c r="K9">
+        <v>0.001611481751613136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.03820572376366247</v>
+        <v>-0.0901782723103776</v>
       </c>
       <c r="C10">
-        <v>0.1574342969126824</v>
+        <v>0.1767763895622515</v>
       </c>
       <c r="D10">
-        <v>-0.09391962736255748</v>
+        <v>-0.03079010199831411</v>
       </c>
       <c r="E10">
-        <v>0.02633349898583229</v>
+        <v>0.02538617378067584</v>
       </c>
       <c r="F10">
-        <v>0.04028229268612974</v>
+        <v>-0.05267150020033146</v>
       </c>
       <c r="G10">
-        <v>-0.004807393721330141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.003446076617662257</v>
+      </c>
+      <c r="H10">
+        <v>0.008425656839154444</v>
+      </c>
+      <c r="I10">
+        <v>-0.01930329219473696</v>
+      </c>
+      <c r="J10">
+        <v>0.04035623688838284</v>
+      </c>
+      <c r="K10">
+        <v>-0.04893501097466202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.07711260073327353</v>
+        <v>-0.07739485226422049</v>
       </c>
       <c r="C11">
-        <v>-0.06054789213371597</v>
+        <v>-0.05980654581679465</v>
       </c>
       <c r="D11">
-        <v>-0.0099965962462509</v>
+        <v>0.02555322523143908</v>
       </c>
       <c r="E11">
-        <v>-0.007772789669569928</v>
+        <v>0.0256597685643178</v>
       </c>
       <c r="F11">
-        <v>-0.01760246366328662</v>
+        <v>0.01358750526613278</v>
       </c>
       <c r="G11">
-        <v>-0.1603281493980045</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.07039346615493852</v>
+      </c>
+      <c r="H11">
+        <v>-0.1181854395942185</v>
+      </c>
+      <c r="I11">
+        <v>0.001200034672966695</v>
+      </c>
+      <c r="J11">
+        <v>-0.1028407577656758</v>
+      </c>
+      <c r="K11">
+        <v>-0.004815825297896559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.07300673425480227</v>
+        <v>-0.07783181698686401</v>
       </c>
       <c r="C12">
-        <v>-0.03881144398726048</v>
+        <v>-0.06821788862078908</v>
       </c>
       <c r="D12">
-        <v>-0.003258445251917015</v>
+        <v>0.03050073269393416</v>
       </c>
       <c r="E12">
-        <v>0.03141718241908085</v>
+        <v>0.05057101024244769</v>
       </c>
       <c r="F12">
-        <v>-0.007014479320521685</v>
+        <v>0.01866900853510997</v>
       </c>
       <c r="G12">
-        <v>-0.1494065422679594</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.09837769012713091</v>
+      </c>
+      <c r="H12">
+        <v>-0.1063263994680645</v>
+      </c>
+      <c r="I12">
+        <v>-0.02152385908781784</v>
+      </c>
+      <c r="J12">
+        <v>-0.1010924641894639</v>
+      </c>
+      <c r="K12">
+        <v>0.003482105809236776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.06343311910409656</v>
+        <v>-0.04111145284789944</v>
       </c>
       <c r="C13">
-        <v>-0.004903297970910949</v>
+        <v>-0.02407619037774662</v>
       </c>
       <c r="D13">
-        <v>-0.009120701452520058</v>
+        <v>0.01177248486869345</v>
       </c>
       <c r="E13">
-        <v>0.0213322462060133</v>
+        <v>-0.006237235806301162</v>
       </c>
       <c r="F13">
-        <v>-0.03825980901850416</v>
+        <v>-0.02149512875034977</v>
       </c>
       <c r="G13">
-        <v>-0.05629490597028659</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.03762695548550336</v>
+      </c>
+      <c r="H13">
+        <v>-0.04625511705630968</v>
+      </c>
+      <c r="I13">
+        <v>-0.03194570767216608</v>
+      </c>
+      <c r="J13">
+        <v>0.04121770537288241</v>
+      </c>
+      <c r="K13">
+        <v>-0.02269035553077354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.05354052833663434</v>
+        <v>-0.04410870683185891</v>
       </c>
       <c r="C14">
-        <v>-0.004239324878209104</v>
+        <v>-0.01742590508388722</v>
       </c>
       <c r="D14">
-        <v>-0.03362428082801242</v>
+        <v>-0.007210585568741857</v>
       </c>
       <c r="E14">
-        <v>0.02491878824191424</v>
+        <v>0.0168387989039967</v>
       </c>
       <c r="F14">
-        <v>-0.008426631525409027</v>
+        <v>0.003834589962332758</v>
       </c>
       <c r="G14">
-        <v>-0.0635282457601828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04761769122485109</v>
+      </c>
+      <c r="H14">
+        <v>-0.05369101883715441</v>
+      </c>
+      <c r="I14">
+        <v>0.01204729292360784</v>
+      </c>
+      <c r="J14">
+        <v>0.05507172065022976</v>
+      </c>
+      <c r="K14">
+        <v>-0.02698876175113248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.03878064944137857</v>
+        <v>-0.0235985236993849</v>
       </c>
       <c r="C15">
-        <v>0.01189469045008873</v>
+        <v>-0.005679022465823743</v>
       </c>
       <c r="D15">
-        <v>-0.0105136982429275</v>
+        <v>-2.069046211327557e-05</v>
       </c>
       <c r="E15">
-        <v>0.005454587463145477</v>
+        <v>-0.02363668227228251</v>
       </c>
       <c r="F15">
-        <v>-0.02274245026534685</v>
+        <v>-0.02774342977345099</v>
       </c>
       <c r="G15">
-        <v>-0.01838730912396112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.01740490633556838</v>
+      </c>
+      <c r="H15">
+        <v>-0.01219744608235499</v>
+      </c>
+      <c r="I15">
+        <v>-0.01082471464708233</v>
+      </c>
+      <c r="J15">
+        <v>0.05686226211090592</v>
+      </c>
+      <c r="K15">
+        <v>-0.02996455873463747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.08014052769833611</v>
+        <v>-0.08363127009480935</v>
       </c>
       <c r="C16">
-        <v>-0.07189657351621967</v>
+        <v>-0.06833873591479206</v>
       </c>
       <c r="D16">
-        <v>-0.01704615290866134</v>
+        <v>0.03665629597946822</v>
       </c>
       <c r="E16">
-        <v>0.03399006220524765</v>
+        <v>0.03251188732275857</v>
       </c>
       <c r="F16">
-        <v>-0.04188689994435435</v>
+        <v>0.008343650547617426</v>
       </c>
       <c r="G16">
-        <v>-0.1218639037846031</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.1004650670424978</v>
+      </c>
+      <c r="H16">
+        <v>-0.1031611255146914</v>
+      </c>
+      <c r="I16">
+        <v>-0.001504336150792447</v>
+      </c>
+      <c r="J16">
+        <v>-0.1117802440853593</v>
+      </c>
+      <c r="K16">
+        <v>-0.0135870758087979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.05094699937626778</v>
+        <v>-0.0502025008784291</v>
       </c>
       <c r="C20">
-        <v>-0.02187218746248473</v>
+        <v>-0.03462965315730894</v>
       </c>
       <c r="D20">
-        <v>-0.01727001034950214</v>
+        <v>-0.01564142089792247</v>
       </c>
       <c r="E20">
-        <v>0.02378655119356587</v>
+        <v>-0.005438814470744438</v>
       </c>
       <c r="F20">
-        <v>-0.01327107511862624</v>
+        <v>-0.01609453787008288</v>
       </c>
       <c r="G20">
-        <v>-0.1103326380644015</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04683720948979558</v>
+      </c>
+      <c r="H20">
+        <v>-0.05987252115648508</v>
+      </c>
+      <c r="I20">
+        <v>0.005759483987708305</v>
+      </c>
+      <c r="J20">
+        <v>0.03556899036306976</v>
+      </c>
+      <c r="K20">
+        <v>-0.05916278664025074</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.02773714990969478</v>
+        <v>-0.02819598711122979</v>
       </c>
       <c r="C21">
-        <v>-0.03447047799436444</v>
+        <v>-0.01921892028997409</v>
       </c>
       <c r="D21">
-        <v>0.007520961434122701</v>
+        <v>-0.03038257695435082</v>
       </c>
       <c r="E21">
-        <v>0.01386699722746766</v>
+        <v>-0.01355666237522719</v>
       </c>
       <c r="F21">
-        <v>0.09380578039496187</v>
+        <v>0.0118333201992264</v>
       </c>
       <c r="G21">
-        <v>0.07244479532011422</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04163972054050743</v>
+      </c>
+      <c r="H21">
+        <v>-0.08095629268716653</v>
+      </c>
+      <c r="I21">
+        <v>-0.06701883000584766</v>
+      </c>
+      <c r="J21">
+        <v>0.04195028783436754</v>
+      </c>
+      <c r="K21">
+        <v>-0.09793845280945669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.04400526024392363</v>
+        <v>-0.03524365027214311</v>
       </c>
       <c r="C22">
-        <v>-0.002647971352894413</v>
+        <v>-0.003320471258714972</v>
       </c>
       <c r="D22">
-        <v>0.006893620357688345</v>
+        <v>0.08278265556542544</v>
       </c>
       <c r="E22">
-        <v>0.5626588411981469</v>
+        <v>-0.4176729352973447</v>
       </c>
       <c r="F22">
-        <v>-0.09055170166537913</v>
+        <v>-0.4899195024990566</v>
       </c>
       <c r="G22">
-        <v>0.3152294712876297</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.1385657230175316</v>
+      </c>
+      <c r="H22">
+        <v>0.132847901707668</v>
+      </c>
+      <c r="I22">
+        <v>-0.00763170592305915</v>
+      </c>
+      <c r="J22">
+        <v>-0.08384840661773824</v>
+      </c>
+      <c r="K22">
+        <v>0.0400356236624967</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.0441090950411645</v>
+        <v>-0.03545171757268349</v>
       </c>
       <c r="C23">
-        <v>-0.003219144445648469</v>
+        <v>-0.003836398802125169</v>
       </c>
       <c r="D23">
-        <v>0.005336756798565537</v>
+        <v>0.08406023303880228</v>
       </c>
       <c r="E23">
-        <v>0.5618011235018162</v>
+        <v>-0.4190790234249102</v>
       </c>
       <c r="F23">
-        <v>-0.09136735095371611</v>
+        <v>-0.4916186232230136</v>
       </c>
       <c r="G23">
-        <v>0.3161015231996017</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.1395931788637726</v>
+      </c>
+      <c r="H23">
+        <v>0.1291393270298854</v>
+      </c>
+      <c r="I23">
+        <v>-0.00654447190628276</v>
+      </c>
+      <c r="J23">
+        <v>-0.08115069843012346</v>
+      </c>
+      <c r="K23">
+        <v>0.04281211150873736</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08597793855337506</v>
+        <v>-0.08582337202541758</v>
       </c>
       <c r="C24">
-        <v>-0.04528175208089973</v>
+        <v>-0.06026719433338373</v>
       </c>
       <c r="D24">
-        <v>-0.02517948797990806</v>
+        <v>0.01613567493809703</v>
       </c>
       <c r="E24">
-        <v>0.03446337399243556</v>
+        <v>0.02647633806892769</v>
       </c>
       <c r="F24">
-        <v>-0.00824296445182332</v>
+        <v>0.006417368726725244</v>
       </c>
       <c r="G24">
-        <v>-0.1250439089787968</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.0941625107031942</v>
+      </c>
+      <c r="H24">
+        <v>-0.1027235869327573</v>
+      </c>
+      <c r="I24">
+        <v>-0.004328011013175417</v>
+      </c>
+      <c r="J24">
+        <v>-0.1137857489432375</v>
+      </c>
+      <c r="K24">
+        <v>0.009337646104292985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.0762062430534849</v>
+        <v>-0.08723202662534758</v>
       </c>
       <c r="C25">
-        <v>-0.01764377594408098</v>
+        <v>-0.04684097420880815</v>
       </c>
       <c r="D25">
-        <v>-0.02683075702640053</v>
+        <v>0.02190273706925528</v>
       </c>
       <c r="E25">
-        <v>0.02535012554086316</v>
+        <v>0.05679924494651637</v>
       </c>
       <c r="F25">
-        <v>-0.001091564225194473</v>
+        <v>0.01715297242868889</v>
       </c>
       <c r="G25">
-        <v>-0.1176549984886889</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.09838807765639825</v>
+      </c>
+      <c r="H25">
+        <v>-0.09497658150317871</v>
+      </c>
+      <c r="I25">
+        <v>-0.001697589264089942</v>
+      </c>
+      <c r="J25">
+        <v>-0.09323814362245679</v>
+      </c>
+      <c r="K25">
+        <v>0.004836236441990903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.0518837333632805</v>
+        <v>-0.0442486585168496</v>
       </c>
       <c r="C26">
-        <v>-0.02307933054753557</v>
+        <v>-0.004732621984275149</v>
       </c>
       <c r="D26">
-        <v>-0.03230005714374964</v>
+        <v>-0.01338732467692183</v>
       </c>
       <c r="E26">
-        <v>0.0130102789410281</v>
+        <v>-0.01424323094787318</v>
       </c>
       <c r="F26">
-        <v>-0.03140934780283606</v>
+        <v>-0.0047459557365741</v>
       </c>
       <c r="G26">
-        <v>-0.05174683671933531</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.04980490086026412</v>
+      </c>
+      <c r="H26">
+        <v>-0.03524874534742296</v>
+      </c>
+      <c r="I26">
+        <v>0.008392091263926238</v>
+      </c>
+      <c r="J26">
+        <v>0.0368270801765519</v>
+      </c>
+      <c r="K26">
+        <v>-0.004666617715987616</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.06125362750346273</v>
+        <v>-0.1069917378496702</v>
       </c>
       <c r="C28">
-        <v>0.2966245849220405</v>
+        <v>0.3158394173346386</v>
       </c>
       <c r="D28">
-        <v>-0.06368382786901015</v>
+        <v>0.01830443910281547</v>
       </c>
       <c r="E28">
-        <v>-0.03577415857909297</v>
+        <v>0.0235557466479731</v>
       </c>
       <c r="F28">
-        <v>0.04719406139303778</v>
+        <v>-0.0006111858431405151</v>
       </c>
       <c r="G28">
-        <v>0.02215573233186496</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01731795681422979</v>
+      </c>
+      <c r="H28">
+        <v>-0.009526082774588069</v>
+      </c>
+      <c r="I28">
+        <v>-0.01546090857344723</v>
+      </c>
+      <c r="J28">
+        <v>-0.00601071231439288</v>
+      </c>
+      <c r="K28">
+        <v>-0.01710043417885136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05816683664458789</v>
+        <v>-0.04131978640824546</v>
       </c>
       <c r="C29">
-        <v>-0.007075684672656784</v>
+        <v>-0.01782006332406124</v>
       </c>
       <c r="D29">
-        <v>-0.03014416841938028</v>
+        <v>0.004258365658747244</v>
       </c>
       <c r="E29">
-        <v>0.04465826020887623</v>
+        <v>0.03134765810208086</v>
       </c>
       <c r="F29">
-        <v>-0.03707111950064571</v>
+        <v>-0.01281816659600653</v>
       </c>
       <c r="G29">
-        <v>-0.03957950729720577</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.09522761276296425</v>
+      </c>
+      <c r="H29">
+        <v>-0.05105734560893072</v>
+      </c>
+      <c r="I29">
+        <v>0.001105533047416796</v>
+      </c>
+      <c r="J29">
+        <v>0.05604115891759065</v>
+      </c>
+      <c r="K29">
+        <v>-0.04390684808798915</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.1135539393088169</v>
+        <v>-0.1088671294272411</v>
       </c>
       <c r="C30">
-        <v>0.02403154851733248</v>
+        <v>-0.04736491709750133</v>
       </c>
       <c r="D30">
-        <v>-0.07390602426409104</v>
+        <v>0.05713585067490044</v>
       </c>
       <c r="E30">
-        <v>0.2001765616776019</v>
+        <v>0.003864221947061467</v>
       </c>
       <c r="F30">
-        <v>0.06188679060813521</v>
+        <v>0.01289893302394501</v>
       </c>
       <c r="G30">
-        <v>-0.1477041008951537</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.1626852386911468</v>
+      </c>
+      <c r="H30">
+        <v>-0.1077227959500099</v>
+      </c>
+      <c r="I30">
+        <v>-0.1856224612311236</v>
+      </c>
+      <c r="J30">
+        <v>-0.09925326296785207</v>
+      </c>
+      <c r="K30">
+        <v>0.04014721682786672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.05761495329339686</v>
+        <v>-0.03927046173204567</v>
       </c>
       <c r="C31">
-        <v>-0.01775356772033962</v>
+        <v>-0.03449041779734344</v>
       </c>
       <c r="D31">
-        <v>0.009976252796494006</v>
+        <v>4.565244067203698e-05</v>
       </c>
       <c r="E31">
-        <v>0.007776116933852393</v>
+        <v>-0.002947030962768477</v>
       </c>
       <c r="F31">
-        <v>-0.02553520910933652</v>
+        <v>-0.001569838211610195</v>
       </c>
       <c r="G31">
-        <v>-0.006134745876634508</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02334915086815914</v>
+      </c>
+      <c r="H31">
+        <v>-0.02542989498253668</v>
+      </c>
+      <c r="I31">
+        <v>0.03523093906520618</v>
+      </c>
+      <c r="J31">
+        <v>0.02636995764183838</v>
+      </c>
+      <c r="K31">
+        <v>-0.002400620211657777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.03743566544877207</v>
+        <v>-0.05317615234600009</v>
       </c>
       <c r="C32">
-        <v>0.01787115421193655</v>
+        <v>-0.002290116971776059</v>
       </c>
       <c r="D32">
-        <v>-0.006420807883748678</v>
+        <v>-0.0145466633637911</v>
       </c>
       <c r="E32">
-        <v>0.08188894820778272</v>
+        <v>-0.000154687838976161</v>
       </c>
       <c r="F32">
-        <v>-0.09049758472345111</v>
+        <v>0.0583634409356746</v>
       </c>
       <c r="G32">
-        <v>-0.05938184990428802</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.02269580315708264</v>
+      </c>
+      <c r="H32">
+        <v>-0.04385906866605838</v>
+      </c>
+      <c r="I32">
+        <v>0.007708100465903739</v>
+      </c>
+      <c r="J32">
+        <v>0.01707420608752309</v>
+      </c>
+      <c r="K32">
+        <v>-0.00729441491561608</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.111229893488349</v>
+        <v>-0.09992204779428153</v>
       </c>
       <c r="C33">
-        <v>-0.01598506317252831</v>
+        <v>-0.0574587156178749</v>
       </c>
       <c r="D33">
-        <v>0.006327605056866601</v>
+        <v>0.06325150069575348</v>
       </c>
       <c r="E33">
-        <v>0.00769568985279299</v>
+        <v>0.03204659347686642</v>
       </c>
       <c r="F33">
-        <v>-0.05718323759781564</v>
+        <v>0.009956811247916929</v>
       </c>
       <c r="G33">
-        <v>-0.05587882113582382</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03664902370726753</v>
+      </c>
+      <c r="H33">
+        <v>-0.05609277872882305</v>
+      </c>
+      <c r="I33">
+        <v>0.01362734191907877</v>
+      </c>
+      <c r="J33">
+        <v>-0.01725230620497108</v>
+      </c>
+      <c r="K33">
+        <v>0.02037497842213239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06667993882059461</v>
+        <v>-0.07093724695784656</v>
       </c>
       <c r="C34">
-        <v>-0.04933682714149788</v>
+        <v>-0.05563471953092933</v>
       </c>
       <c r="D34">
-        <v>-0.01080224100075484</v>
+        <v>0.02054572782676084</v>
       </c>
       <c r="E34">
-        <v>0.01003918013128821</v>
+        <v>0.03250657299768239</v>
       </c>
       <c r="F34">
-        <v>-0.01957180669869966</v>
+        <v>0.009678086480191065</v>
       </c>
       <c r="G34">
-        <v>-0.101025090613501</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.09192107092881423</v>
+      </c>
+      <c r="H34">
+        <v>-0.09778669941436954</v>
+      </c>
+      <c r="I34">
+        <v>-0.002463757689995531</v>
+      </c>
+      <c r="J34">
+        <v>-0.08548087405804347</v>
+      </c>
+      <c r="K34">
+        <v>-0.03356054673699577</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04537767406855931</v>
+        <v>-0.02086805775665142</v>
       </c>
       <c r="C35">
-        <v>-0.006503526615703088</v>
+        <v>-0.01470887626679329</v>
       </c>
       <c r="D35">
-        <v>0.01709599203837709</v>
+        <v>0.008004256747486581</v>
       </c>
       <c r="E35">
-        <v>0.001978566587562993</v>
+        <v>0.006588219447864624</v>
       </c>
       <c r="F35">
-        <v>0.03579345152198612</v>
+        <v>0.000193486524251469</v>
       </c>
       <c r="G35">
-        <v>-0.04579896209303128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.05352171420616818</v>
+      </c>
+      <c r="H35">
+        <v>-0.02715356195790964</v>
+      </c>
+      <c r="I35">
+        <v>-0.0133572297184727</v>
+      </c>
+      <c r="J35">
+        <v>0.007693670649270868</v>
+      </c>
+      <c r="K35">
+        <v>-0.06921520136060563</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03691320669745998</v>
+        <v>-0.03026470406392416</v>
       </c>
       <c r="C36">
-        <v>-0.003448850132956986</v>
+        <v>-0.01247176609478005</v>
       </c>
       <c r="D36">
-        <v>-0.02315346637206685</v>
+        <v>0.006148644655751078</v>
       </c>
       <c r="E36">
-        <v>0.03479974502941306</v>
+        <v>-0.004115682358498963</v>
       </c>
       <c r="F36">
-        <v>-0.006288885738286941</v>
+        <v>-0.007766449561973632</v>
       </c>
       <c r="G36">
-        <v>-0.05617402402302527</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.04784181617290672</v>
+      </c>
+      <c r="H36">
+        <v>-0.05726540362680528</v>
+      </c>
+      <c r="I36">
+        <v>-0.006578397813868412</v>
+      </c>
+      <c r="J36">
+        <v>0.02920686636416178</v>
+      </c>
+      <c r="K36">
+        <v>0.01355691236712287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.05409275056064396</v>
+        <v>-0.02209247360935899</v>
       </c>
       <c r="C38">
-        <v>-0.01501746336793594</v>
+        <v>-0.02150171414476545</v>
       </c>
       <c r="D38">
-        <v>-0.004821480069102384</v>
+        <v>0.00997459685900948</v>
       </c>
       <c r="E38">
-        <v>0.006836692372100577</v>
+        <v>-0.003118625332963879</v>
       </c>
       <c r="F38">
-        <v>-0.004868496083041045</v>
+        <v>-0.02270687578373403</v>
       </c>
       <c r="G38">
-        <v>-0.05388619307944639</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.009493487205971438</v>
+      </c>
+      <c r="H38">
+        <v>0.04858028844045931</v>
+      </c>
+      <c r="I38">
+        <v>-0.01032843612136864</v>
+      </c>
+      <c r="J38">
+        <v>0.01648067850227863</v>
+      </c>
+      <c r="K38">
+        <v>0.008235487701833223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.109412066535693</v>
+        <v>-0.1189416744291555</v>
       </c>
       <c r="C39">
-        <v>-0.04018011095663205</v>
+        <v>-0.08587507550919214</v>
       </c>
       <c r="D39">
-        <v>-0.005037394563999446</v>
+        <v>0.05007824758976535</v>
       </c>
       <c r="E39">
-        <v>0.06874217226763384</v>
+        <v>0.09221410271211719</v>
       </c>
       <c r="F39">
-        <v>-0.01395471816852543</v>
+        <v>0.05808657812774917</v>
       </c>
       <c r="G39">
-        <v>-0.1527844952553734</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.137813592985232</v>
+      </c>
+      <c r="H39">
+        <v>-0.08581960453118209</v>
+      </c>
+      <c r="I39">
+        <v>-0.02136214777023111</v>
+      </c>
+      <c r="J39">
+        <v>-0.1758245961933228</v>
+      </c>
+      <c r="K39">
+        <v>-0.01196747293261547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.05373641572813297</v>
+        <v>-0.02002891134039641</v>
       </c>
       <c r="C40">
-        <v>-0.02623332814530391</v>
+        <v>-0.03652606319804502</v>
       </c>
       <c r="D40">
-        <v>0.01990082069882247</v>
+        <v>-0.004101140580138531</v>
       </c>
       <c r="E40">
-        <v>0.1008558782332503</v>
+        <v>-0.04656851745916834</v>
       </c>
       <c r="F40">
-        <v>0.01934384017778188</v>
+        <v>-0.05194366420736802</v>
       </c>
       <c r="G40">
-        <v>-0.2438189932645016</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.06830759724307826</v>
+      </c>
+      <c r="H40">
+        <v>-0.1052191184755528</v>
+      </c>
+      <c r="I40">
+        <v>-0.0866930106199401</v>
+      </c>
+      <c r="J40">
+        <v>0.03685614730032769</v>
+      </c>
+      <c r="K40">
+        <v>-0.04471872578163142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.04849282871926867</v>
+        <v>-0.03275199341498613</v>
       </c>
       <c r="C41">
-        <v>-0.02852370025456986</v>
+        <v>-0.01678167292713588</v>
       </c>
       <c r="D41">
-        <v>0.000165249449405053</v>
+        <v>-0.008597562022333347</v>
       </c>
       <c r="E41">
-        <v>-0.01286574455829162</v>
+        <v>0.01122337980840836</v>
       </c>
       <c r="F41">
-        <v>-0.02279974074369842</v>
+        <v>0.00141636734952789</v>
       </c>
       <c r="G41">
-        <v>-0.06596707097698334</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02112146876822077</v>
+      </c>
+      <c r="H41">
+        <v>-0.01749006095504609</v>
+      </c>
+      <c r="I41">
+        <v>0.01208103289962457</v>
+      </c>
+      <c r="J41">
+        <v>0.0203035497588725</v>
+      </c>
+      <c r="K41">
+        <v>-0.02718808155600227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.07341655151890655</v>
+        <v>-0.04805250199566437</v>
       </c>
       <c r="C43">
-        <v>-0.02665061932914014</v>
+        <v>-0.01936380572719947</v>
       </c>
       <c r="D43">
-        <v>-0.01938759847806829</v>
+        <v>0.01637855463103676</v>
       </c>
       <c r="E43">
-        <v>0.02271064346787758</v>
+        <v>0.005059875216580016</v>
       </c>
       <c r="F43">
-        <v>-0.01890632535400262</v>
+        <v>-0.01323937463340516</v>
       </c>
       <c r="G43">
-        <v>-0.007822956008295022</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.03534906755612221</v>
+      </c>
+      <c r="H43">
+        <v>-0.002290997625117304</v>
+      </c>
+      <c r="I43">
+        <v>0.008435961899555472</v>
+      </c>
+      <c r="J43">
+        <v>0.01458863093468397</v>
+      </c>
+      <c r="K43">
+        <v>-0.007906057816906502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.07289388943580788</v>
+        <v>-0.1080121429055806</v>
       </c>
       <c r="C44">
-        <v>-0.01842757383952323</v>
+        <v>-0.08420304467156904</v>
       </c>
       <c r="D44">
-        <v>-0.09642870479633404</v>
+        <v>0.05698675354039921</v>
       </c>
       <c r="E44">
-        <v>0.06115290736094376</v>
+        <v>0.006605396393429331</v>
       </c>
       <c r="F44">
-        <v>-0.03861731185748276</v>
+        <v>-0.1202370648910706</v>
       </c>
       <c r="G44">
-        <v>-0.1089266222896136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.2075038975235568</v>
+      </c>
+      <c r="H44">
+        <v>-0.1443268672873211</v>
+      </c>
+      <c r="I44">
+        <v>-0.07436184928972955</v>
+      </c>
+      <c r="J44">
+        <v>0.07050358725155381</v>
+      </c>
+      <c r="K44">
+        <v>-0.09048932563851553</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.04839492183959409</v>
+        <v>-0.02695958130175118</v>
       </c>
       <c r="C46">
-        <v>-0.03861432228109723</v>
+        <v>-0.007496966627656529</v>
       </c>
       <c r="D46">
-        <v>-0.03087639496494693</v>
+        <v>0.01091168392879538</v>
       </c>
       <c r="E46">
-        <v>0.05222889333559545</v>
+        <v>-0.005613934840562211</v>
       </c>
       <c r="F46">
-        <v>-0.01935088467271264</v>
+        <v>-0.04581561672302354</v>
       </c>
       <c r="G46">
-        <v>-0.03094608504226913</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.0550291690129895</v>
+      </c>
+      <c r="H46">
+        <v>-0.02604074359160567</v>
+      </c>
+      <c r="I46">
+        <v>-0.01270866719522867</v>
+      </c>
+      <c r="J46">
+        <v>0.04975270388608287</v>
+      </c>
+      <c r="K46">
+        <v>-0.07881931620964959</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.04811753283831807</v>
+        <v>-0.04060586880235804</v>
       </c>
       <c r="C47">
-        <v>-0.0005319049902910085</v>
+        <v>-0.01162468590282525</v>
       </c>
       <c r="D47">
-        <v>-0.00926402165924302</v>
+        <v>0.006522886693233199</v>
       </c>
       <c r="E47">
-        <v>0.06116876019276055</v>
+        <v>-0.007245072001880909</v>
       </c>
       <c r="F47">
-        <v>0.007880317270961053</v>
+        <v>-0.00875837282900791</v>
       </c>
       <c r="G47">
-        <v>0.006425047757388422</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.03605073688455581</v>
+      </c>
+      <c r="H47">
+        <v>-0.02473345230185453</v>
+      </c>
+      <c r="I47">
+        <v>-0.004657779364089662</v>
+      </c>
+      <c r="J47">
+        <v>0.05325402881813863</v>
+      </c>
+      <c r="K47">
+        <v>-0.02879471665689622</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.04503293338366315</v>
+        <v>-0.04423858316508276</v>
       </c>
       <c r="C48">
-        <v>-1.38190110196726e-05</v>
+        <v>-0.01363955089622348</v>
       </c>
       <c r="D48">
-        <v>0.003058903008540757</v>
+        <v>0.005187120132823719</v>
       </c>
       <c r="E48">
-        <v>0.0362400139202369</v>
+        <v>0.006708400975123082</v>
       </c>
       <c r="F48">
-        <v>-0.00870835321004741</v>
+        <v>-0.005753369707187124</v>
       </c>
       <c r="G48">
-        <v>-0.04051096962714885</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.05239321420672666</v>
+      </c>
+      <c r="H48">
+        <v>-0.04854046023900718</v>
+      </c>
+      <c r="I48">
+        <v>-0.02201359713487884</v>
+      </c>
+      <c r="J48">
+        <v>-0.0009418300318930034</v>
+      </c>
+      <c r="K48">
+        <v>-0.02153468239091474</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.2360509919612377</v>
+        <v>-0.2298068987328254</v>
       </c>
       <c r="C49">
-        <v>-0.09105098492657125</v>
+        <v>-0.04691290677209745</v>
       </c>
       <c r="D49">
-        <v>-0.02202018015815715</v>
+        <v>-0.07318353102026375</v>
       </c>
       <c r="E49">
-        <v>-0.0865068327685533</v>
+        <v>0.04961091372697915</v>
       </c>
       <c r="F49">
-        <v>0.1676720369052514</v>
+        <v>-0.005168317653163056</v>
       </c>
       <c r="G49">
-        <v>0.07825259777491296</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.1726870990256366</v>
+      </c>
+      <c r="H49">
+        <v>0.1773454480501258</v>
+      </c>
+      <c r="I49">
+        <v>-0.1686723206112877</v>
+      </c>
+      <c r="J49">
+        <v>-0.2514006097766552</v>
+      </c>
+      <c r="K49">
+        <v>0.1380611318071925</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.05531060772645156</v>
+        <v>-0.04392690597487183</v>
       </c>
       <c r="C50">
-        <v>-0.01360215020385944</v>
+        <v>-0.02521764295905731</v>
       </c>
       <c r="D50">
-        <v>0.005300669258624832</v>
+        <v>-0.00730115157676557</v>
       </c>
       <c r="E50">
-        <v>0.02665851343601822</v>
+        <v>-0.004816886498701489</v>
       </c>
       <c r="F50">
-        <v>-0.05183761719062862</v>
+        <v>0.001899009361305438</v>
       </c>
       <c r="G50">
-        <v>0.002961373652565825</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.04598379715495498</v>
+      </c>
+      <c r="H50">
+        <v>-0.03588792370819476</v>
+      </c>
+      <c r="I50">
+        <v>0.02026941384267053</v>
+      </c>
+      <c r="J50">
+        <v>0.02474231879199197</v>
+      </c>
+      <c r="K50">
+        <v>0.02043106579886773</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03657565640410818</v>
+        <v>-0.02011196878609286</v>
       </c>
       <c r="C51">
-        <v>-0.01432026002845046</v>
+        <v>0.002830159801463256</v>
       </c>
       <c r="D51">
-        <v>-0.01428994048039769</v>
+        <v>0.01282339348191312</v>
       </c>
       <c r="E51">
-        <v>-0.004199489006138183</v>
+        <v>0.01217611637086896</v>
       </c>
       <c r="F51">
-        <v>0.0008379891401633893</v>
+        <v>-0.01935783319241806</v>
       </c>
       <c r="G51">
-        <v>0.002764163532188547</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.02762390290573885</v>
+      </c>
+      <c r="H51">
+        <v>0.007999920414429833</v>
+      </c>
+      <c r="I51">
+        <v>-0.01223275317057718</v>
+      </c>
+      <c r="J51">
+        <v>-0.02664530462468896</v>
+      </c>
+      <c r="K51">
+        <v>0.00477545936207184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.07237138940634967</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.03729427829303601</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01320780436586869</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.01485431324755495</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01519804478612665</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>-0.05714438403140846</v>
+      </c>
+      <c r="H52">
+        <v>0.03076570419321686</v>
+      </c>
+      <c r="I52">
+        <v>0.1267083934572973</v>
+      </c>
+      <c r="J52">
+        <v>0.01037469677110068</v>
+      </c>
+      <c r="K52">
+        <v>0.004681287081266913</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.1589525522464132</v>
+        <v>-0.162665144541797</v>
       </c>
       <c r="C53">
-        <v>0.002196632828761438</v>
+        <v>-0.03144368949195028</v>
       </c>
       <c r="D53">
-        <v>-0.01473008465107594</v>
+        <v>-0.005866736023023242</v>
       </c>
       <c r="E53">
-        <v>-0.05448106577119096</v>
+        <v>0.01681634295254934</v>
       </c>
       <c r="F53">
-        <v>-0.2252678340262993</v>
+        <v>-0.01269925520072514</v>
       </c>
       <c r="G53">
-        <v>0.05726442241938277</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02164298480883475</v>
+      </c>
+      <c r="H53">
+        <v>0.1057320644301452</v>
+      </c>
+      <c r="I53">
+        <v>0.2695906377141581</v>
+      </c>
+      <c r="J53">
+        <v>0.0869652067949456</v>
+      </c>
+      <c r="K53">
+        <v>0.07213589472178164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.05410763877059098</v>
+        <v>-0.05276407565261931</v>
       </c>
       <c r="C54">
-        <v>-0.006478481970677103</v>
+        <v>-0.03142663330363369</v>
       </c>
       <c r="D54">
-        <v>-0.02600282129359569</v>
+        <v>-0.003541656313776789</v>
       </c>
       <c r="E54">
-        <v>0.04003157905655805</v>
+        <v>-0.01039137325352187</v>
       </c>
       <c r="F54">
-        <v>-0.01578128343733892</v>
+        <v>-0.02386430317257666</v>
       </c>
       <c r="G54">
-        <v>-0.06990138500353492</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.05761930993221823</v>
+      </c>
+      <c r="H54">
+        <v>-0.1323822261748896</v>
+      </c>
+      <c r="I54">
+        <v>-0.007637345191991952</v>
+      </c>
+      <c r="J54">
+        <v>0.115828683517424</v>
+      </c>
+      <c r="K54">
+        <v>-0.06491617598762475</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09295910329289149</v>
+        <v>-0.08922683173731936</v>
       </c>
       <c r="C55">
-        <v>-0.01757243712304443</v>
+        <v>-0.03459368008715798</v>
       </c>
       <c r="D55">
-        <v>-0.01841245969029117</v>
+        <v>0.04707998460710502</v>
       </c>
       <c r="E55">
-        <v>0.0002696774124728055</v>
+        <v>0.0418171069942718</v>
       </c>
       <c r="F55">
-        <v>-0.1748142969638554</v>
+        <v>-0.005702952122875971</v>
       </c>
       <c r="G55">
-        <v>0.007122081897315735</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01745104009394094</v>
+      </c>
+      <c r="H55">
+        <v>0.02003210231601872</v>
+      </c>
+      <c r="I55">
+        <v>0.1632847549158798</v>
+      </c>
+      <c r="J55">
+        <v>0.0439324318811976</v>
+      </c>
+      <c r="K55">
+        <v>0.01759436659648865</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1600091508277285</v>
+        <v>-0.1596421018544379</v>
       </c>
       <c r="C56">
-        <v>0.00198776759718081</v>
+        <v>-0.04318093289058676</v>
       </c>
       <c r="D56">
-        <v>-0.008807402784961928</v>
+        <v>0.01201764066438783</v>
       </c>
       <c r="E56">
-        <v>-0.05367709887139233</v>
+        <v>0.04581704383915009</v>
       </c>
       <c r="F56">
-        <v>-0.229511581424772</v>
+        <v>-0.01422769863333843</v>
       </c>
       <c r="G56">
-        <v>0.05949166685166326</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.0536457869200685</v>
+      </c>
+      <c r="H56">
+        <v>0.07015144882849574</v>
+      </c>
+      <c r="I56">
+        <v>0.2271414416603467</v>
+      </c>
+      <c r="J56">
+        <v>0.06061923502516126</v>
+      </c>
+      <c r="K56">
+        <v>0.0663968835138328</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.03153208215897996</v>
+        <v>-0.04239554498436805</v>
       </c>
       <c r="C58">
-        <v>-0.06118828022457675</v>
+        <v>-0.0294107478701384</v>
       </c>
       <c r="D58">
-        <v>0.03473445568516814</v>
+        <v>0.008181238365868662</v>
       </c>
       <c r="E58">
-        <v>0.2752542435200231</v>
+        <v>-0.06582540316340921</v>
       </c>
       <c r="F58">
-        <v>0.4933594128911953</v>
+        <v>-0.05039191063066673</v>
       </c>
       <c r="G58">
-        <v>-0.1712197080476159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1103101155798774</v>
+      </c>
+      <c r="H58">
+        <v>0.007379448903636564</v>
+      </c>
+      <c r="I58">
+        <v>-0.1995356772965391</v>
+      </c>
+      <c r="J58">
+        <v>0.007287066559616834</v>
+      </c>
+      <c r="K58">
+        <v>-0.28119683250328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1538127733736522</v>
+        <v>-0.1801432599939708</v>
       </c>
       <c r="C59">
-        <v>0.3909770859537215</v>
+        <v>0.2997578425868461</v>
       </c>
       <c r="D59">
-        <v>-0.08928618171583348</v>
+        <v>0.03940425057873018</v>
       </c>
       <c r="E59">
-        <v>-0.07299991077599016</v>
+        <v>0.06304853641024091</v>
       </c>
       <c r="F59">
-        <v>-0.03326269844655975</v>
+        <v>0.0009600182313736264</v>
       </c>
       <c r="G59">
-        <v>-0.03205833783660303</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.03584838576804728</v>
+      </c>
+      <c r="H59">
+        <v>-0.04550842723213783</v>
+      </c>
+      <c r="I59">
+        <v>0.06650797730134171</v>
+      </c>
+      <c r="J59">
+        <v>-0.02644072979213799</v>
+      </c>
+      <c r="K59">
+        <v>0.02476240436572895</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2640342873549033</v>
+        <v>-0.2666192065140721</v>
       </c>
       <c r="C60">
-        <v>-0.06986723223349993</v>
+        <v>-0.148061550655529</v>
       </c>
       <c r="D60">
-        <v>-0.07437171318468853</v>
+        <v>-0.08190305915723703</v>
       </c>
       <c r="E60">
-        <v>-0.07905896673884409</v>
+        <v>0.1111433727262924</v>
       </c>
       <c r="F60">
-        <v>0.06849019692435607</v>
+        <v>-0.04406279569097139</v>
       </c>
       <c r="G60">
-        <v>0.1727456789854562</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.02822692152728092</v>
+      </c>
+      <c r="H60">
+        <v>0.2026562059662389</v>
+      </c>
+      <c r="I60">
+        <v>-0.1881430728628274</v>
+      </c>
+      <c r="J60">
+        <v>-0.1041362196527242</v>
+      </c>
+      <c r="K60">
+        <v>0.3609189745015673</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.09401869837667745</v>
+        <v>-0.1065111877280121</v>
       </c>
       <c r="C61">
-        <v>-0.01765970108250099</v>
+        <v>-0.04609052831323468</v>
       </c>
       <c r="D61">
-        <v>-0.006316449213767564</v>
+        <v>0.03617021937291791</v>
       </c>
       <c r="E61">
-        <v>0.02157939631831465</v>
+        <v>0.07121801212163363</v>
       </c>
       <c r="F61">
-        <v>-0.02520182867547103</v>
+        <v>0.01901813099140142</v>
       </c>
       <c r="G61">
-        <v>-0.06596875857008763</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.1116032983644931</v>
+      </c>
+      <c r="H61">
+        <v>-0.1019821014774808</v>
+      </c>
+      <c r="I61">
+        <v>0.04661669327694197</v>
+      </c>
+      <c r="J61">
+        <v>-0.08847522077163059</v>
+      </c>
+      <c r="K61">
+        <v>-0.03612093066864869</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1447433539719593</v>
+        <v>-0.1541991880454292</v>
       </c>
       <c r="C62">
-        <v>-0.02315873930446761</v>
+        <v>-0.04436142530200855</v>
       </c>
       <c r="D62">
-        <v>0.03013029656165919</v>
+        <v>0.01647520065222596</v>
       </c>
       <c r="E62">
-        <v>-0.1239995636251815</v>
+        <v>0.03840957928545775</v>
       </c>
       <c r="F62">
-        <v>-0.2370213889598436</v>
+        <v>0.007264017022690335</v>
       </c>
       <c r="G62">
-        <v>0.02424983781163162</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.02398185473346492</v>
+      </c>
+      <c r="H62">
+        <v>0.09265958985839079</v>
+      </c>
+      <c r="I62">
+        <v>0.2225075983878521</v>
+      </c>
+      <c r="J62">
+        <v>0.08569112685024305</v>
+      </c>
+      <c r="K62">
+        <v>0.05648058264163595</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.04326519515596956</v>
+        <v>-0.04019029083085168</v>
       </c>
       <c r="C63">
-        <v>-0.01380555715875672</v>
+        <v>-0.005064320975163857</v>
       </c>
       <c r="D63">
-        <v>0.007276972309561701</v>
+        <v>0.01162223130916889</v>
       </c>
       <c r="E63">
-        <v>0.01389535342548127</v>
+        <v>-0.01670530666333792</v>
       </c>
       <c r="F63">
-        <v>-0.023297276679771</v>
+        <v>0.02056135230695187</v>
       </c>
       <c r="G63">
-        <v>-0.04142197920495611</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.039649868499513</v>
+      </c>
+      <c r="H63">
+        <v>-0.06120775858358218</v>
+      </c>
+      <c r="I63">
+        <v>-0.01515787827546613</v>
+      </c>
+      <c r="J63">
+        <v>0.01204429383054507</v>
+      </c>
+      <c r="K63">
+        <v>-0.01008026475503871</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.1067328487837993</v>
+        <v>-0.09964414870921268</v>
       </c>
       <c r="C64">
-        <v>-0.01002067952710104</v>
+        <v>-0.02652549314981352</v>
       </c>
       <c r="D64">
-        <v>-0.03962251389980501</v>
+        <v>-0.01199054544325238</v>
       </c>
       <c r="E64">
-        <v>0.03455415268244271</v>
+        <v>0.02873869944991797</v>
       </c>
       <c r="F64">
-        <v>0.01733246802771978</v>
+        <v>-0.04117743171587586</v>
       </c>
       <c r="G64">
-        <v>-0.05089643986000515</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06576520402434936</v>
+      </c>
+      <c r="H64">
+        <v>-0.05328329596473642</v>
+      </c>
+      <c r="I64">
+        <v>-0.07926043252634504</v>
+      </c>
+      <c r="J64">
+        <v>-0.02455274010956091</v>
+      </c>
+      <c r="K64">
+        <v>0.04653583339370151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.1204490767205297</v>
+        <v>-0.1154402489469612</v>
       </c>
       <c r="C65">
-        <v>-0.02656470682599257</v>
+        <v>-0.009930333856601725</v>
       </c>
       <c r="D65">
-        <v>-0.01841446455059541</v>
+        <v>-0.007675312784590098</v>
       </c>
       <c r="E65">
-        <v>0.06060048507403792</v>
+        <v>-0.02846192895998351</v>
       </c>
       <c r="F65">
-        <v>0.1911528308901645</v>
+        <v>0.02345086771517891</v>
       </c>
       <c r="G65">
-        <v>0.2025915102816106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.051803236281043</v>
+      </c>
+      <c r="H65">
+        <v>-0.001992892439616744</v>
+      </c>
+      <c r="I65">
+        <v>-0.2887958616219279</v>
+      </c>
+      <c r="J65">
+        <v>0.465040126446625</v>
+      </c>
+      <c r="K65">
+        <v>0.2880524435086236</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1609528300767625</v>
+        <v>-0.1456269033351494</v>
       </c>
       <c r="C66">
-        <v>-0.04826124514636483</v>
+        <v>-0.1001285428385444</v>
       </c>
       <c r="D66">
-        <v>0.01748551644468982</v>
+        <v>0.05191922707146535</v>
       </c>
       <c r="E66">
-        <v>0.01783519077939775</v>
+        <v>0.08981357381254028</v>
       </c>
       <c r="F66">
-        <v>-0.04015169277328375</v>
+        <v>0.06635247511773401</v>
       </c>
       <c r="G66">
-        <v>-0.2936833126176643</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.1220741618661022</v>
+      </c>
+      <c r="H66">
+        <v>-0.07300794238127593</v>
+      </c>
+      <c r="I66">
+        <v>0.00966950464124039</v>
+      </c>
+      <c r="J66">
+        <v>-0.2197485367969216</v>
+      </c>
+      <c r="K66">
+        <v>0.03750532526989964</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.1057910646591961</v>
+        <v>-0.07851202915604395</v>
       </c>
       <c r="C67">
-        <v>-0.03868912877288781</v>
+        <v>-0.05213344612603817</v>
       </c>
       <c r="D67">
-        <v>-0.02212029421275721</v>
+        <v>0.07026200584185763</v>
       </c>
       <c r="E67">
-        <v>-0.01693158606380471</v>
+        <v>0.02643227433179992</v>
       </c>
       <c r="F67">
-        <v>-0.01632097234931921</v>
+        <v>-0.02678831766953369</v>
       </c>
       <c r="G67">
-        <v>-0.04913972261386622</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.06732970889534137</v>
+      </c>
+      <c r="H67">
+        <v>0.03225969992483788</v>
+      </c>
+      <c r="I67">
+        <v>0.01138123801071487</v>
+      </c>
+      <c r="J67">
+        <v>-0.05743480474084153</v>
+      </c>
+      <c r="K67">
+        <v>0.08196562132628091</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.0408099811107924</v>
+        <v>-0.08988945154097355</v>
       </c>
       <c r="C68">
-        <v>0.2923291880353064</v>
+        <v>0.2830476866840104</v>
       </c>
       <c r="D68">
-        <v>-0.03896143159469797</v>
+        <v>0.01662803065336308</v>
       </c>
       <c r="E68">
-        <v>-0.01075662230750193</v>
+        <v>0.01511532056501357</v>
       </c>
       <c r="F68">
-        <v>0.01404443985906008</v>
+        <v>0.02014204635151959</v>
       </c>
       <c r="G68">
-        <v>0.02539228951207197</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02763720247459863</v>
+      </c>
+      <c r="H68">
+        <v>-0.02955404112274597</v>
+      </c>
+      <c r="I68">
+        <v>-0.004902957787807474</v>
+      </c>
+      <c r="J68">
+        <v>0.006654579731153576</v>
+      </c>
+      <c r="K68">
+        <v>0.01604337128423769</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.04668226195353412</v>
+        <v>-0.03703956873491265</v>
       </c>
       <c r="C69">
-        <v>-0.01182982656668632</v>
+        <v>-0.0009877081638906711</v>
       </c>
       <c r="D69">
-        <v>-0.008634773325931985</v>
+        <v>0.0291142703954999</v>
       </c>
       <c r="E69">
-        <v>-0.0003578502743339717</v>
+        <v>0.01447509943259271</v>
       </c>
       <c r="F69">
-        <v>-0.008022251176645854</v>
+        <v>-0.01546681345048035</v>
       </c>
       <c r="G69">
-        <v>-0.01749471939357038</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01065206215858418</v>
+      </c>
+      <c r="H69">
+        <v>-0.001924360604115872</v>
+      </c>
+      <c r="I69">
+        <v>0.006234908068512196</v>
+      </c>
+      <c r="J69">
+        <v>0.03079085363618756</v>
+      </c>
+      <c r="K69">
+        <v>0.0130001353804411</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.07566849463025606</v>
+        <v>-0.0466034512843624</v>
       </c>
       <c r="C70">
-        <v>-0.006417181088617412</v>
+        <v>-0.005854661391687571</v>
       </c>
       <c r="D70">
-        <v>-0.0358947024977011</v>
+        <v>0.02439075320357893</v>
       </c>
       <c r="E70">
-        <v>-0.03270109946417449</v>
+        <v>0.04975307134926168</v>
       </c>
       <c r="F70">
-        <v>0.08102256105707774</v>
+        <v>-0.01291166927429668</v>
       </c>
       <c r="G70">
-        <v>0.01480247798752217</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>-0.01781269494073377</v>
+      </c>
+      <c r="H70">
+        <v>-0.0135705923313319</v>
+      </c>
+      <c r="I70">
+        <v>-0.07738128702938797</v>
+      </c>
+      <c r="J70">
+        <v>0.1479693090372988</v>
+      </c>
+      <c r="K70">
+        <v>-0.1303481425834361</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.05120094935737286</v>
+        <v>-0.1053418259644814</v>
       </c>
       <c r="C71">
-        <v>0.2939789226227321</v>
+        <v>0.2945062076260067</v>
       </c>
       <c r="D71">
-        <v>-0.05710285597687217</v>
+        <v>0.01393642540729981</v>
       </c>
       <c r="E71">
-        <v>-0.008003303501879878</v>
+        <v>0.0283234396744161</v>
       </c>
       <c r="F71">
-        <v>0.01321389645488531</v>
+        <v>-0.007720550454821994</v>
       </c>
       <c r="G71">
-        <v>-0.009945182418928269</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.04205405464068777</v>
+      </c>
+      <c r="H71">
+        <v>-0.02402337261912867</v>
+      </c>
+      <c r="I71">
+        <v>-0.001004890439311876</v>
+      </c>
+      <c r="J71">
+        <v>-0.02211222771435885</v>
+      </c>
+      <c r="K71">
+        <v>0.03522784375773268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1460416610192242</v>
+        <v>-0.147252851484075</v>
       </c>
       <c r="C72">
-        <v>0.04982674650491504</v>
+        <v>-0.0005500930077480598</v>
       </c>
       <c r="D72">
-        <v>0.2360731445126729</v>
+        <v>0.02088782803813031</v>
       </c>
       <c r="E72">
-        <v>-0.03534252142269943</v>
+        <v>-0.0639346527244683</v>
       </c>
       <c r="F72">
-        <v>-0.03620546822923259</v>
+        <v>0.08027041202415608</v>
       </c>
       <c r="G72">
-        <v>-0.05353953217630988</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.002872713963230993</v>
+      </c>
+      <c r="H72">
+        <v>0.01943800249462845</v>
+      </c>
+      <c r="I72">
+        <v>0.0316450128555039</v>
+      </c>
+      <c r="J72">
+        <v>0.08105873092731178</v>
+      </c>
+      <c r="K72">
+        <v>0.1556107961207792</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2848917715266511</v>
+        <v>-0.2423171936721438</v>
       </c>
       <c r="C73">
-        <v>-0.166034206283737</v>
+        <v>-0.1093372778465444</v>
       </c>
       <c r="D73">
-        <v>-0.0410755493942655</v>
+        <v>0.001435401827627578</v>
       </c>
       <c r="E73">
-        <v>-0.1526564660526919</v>
+        <v>0.1538144067396069</v>
       </c>
       <c r="F73">
-        <v>0.3005588986282646</v>
+        <v>-0.04511546963195836</v>
       </c>
       <c r="G73">
-        <v>0.2360064059593231</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.2881482214456801</v>
+      </c>
+      <c r="H73">
+        <v>0.3049508935085719</v>
+      </c>
+      <c r="I73">
+        <v>-0.2547239555283708</v>
+      </c>
+      <c r="J73">
+        <v>-0.2216474468889827</v>
+      </c>
+      <c r="K73">
+        <v>-0.06777514881658084</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.09824846719371978</v>
+        <v>-0.1139499665023854</v>
       </c>
       <c r="C74">
-        <v>-0.03728696352616909</v>
+        <v>-0.05509455581122304</v>
       </c>
       <c r="D74">
-        <v>-0.001664947604635918</v>
+        <v>0.02662422875220007</v>
       </c>
       <c r="E74">
-        <v>-0.01597793033804609</v>
+        <v>0.01320176068776424</v>
       </c>
       <c r="F74">
-        <v>-0.0978175707074149</v>
+        <v>-0.005533983782784401</v>
       </c>
       <c r="G74">
-        <v>0.03194748134897221</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.06367684907431034</v>
+      </c>
+      <c r="H74">
+        <v>0.07941888052675386</v>
+      </c>
+      <c r="I74">
+        <v>0.1328916667950256</v>
+      </c>
+      <c r="J74">
+        <v>0.05252114640080277</v>
+      </c>
+      <c r="K74">
+        <v>0.005052863257545422</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.09277193518650602</v>
+        <v>-0.1108336211632547</v>
       </c>
       <c r="C75">
-        <v>-0.01662108008759301</v>
+        <v>-0.0443226057135496</v>
       </c>
       <c r="D75">
-        <v>0.02014866381478261</v>
+        <v>0.00787757360783756</v>
       </c>
       <c r="E75">
-        <v>-0.0343112707256704</v>
+        <v>0.001044092067363762</v>
       </c>
       <c r="F75">
-        <v>-0.1122973041043577</v>
+        <v>0.00673208997774895</v>
       </c>
       <c r="G75">
-        <v>0.06253986853378074</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.001094681890680518</v>
+      </c>
+      <c r="H75">
+        <v>0.04483376774756323</v>
+      </c>
+      <c r="I75">
+        <v>0.1520919646588044</v>
+      </c>
+      <c r="J75">
+        <v>0.04943812580570296</v>
+      </c>
+      <c r="K75">
+        <v>-0.002833568534941901</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1359555856467955</v>
+        <v>-0.05648130420175264</v>
       </c>
       <c r="C76">
-        <v>-0.02977149397428751</v>
+        <v>-0.02006265535547166</v>
       </c>
       <c r="D76">
-        <v>-0.01896573686207459</v>
+        <v>0.02682165347762345</v>
       </c>
       <c r="E76">
-        <v>0.01656105217355651</v>
+        <v>0.01894561645724198</v>
       </c>
       <c r="F76">
-        <v>-0.2143467899911314</v>
+        <v>-0.03012897683376843</v>
       </c>
       <c r="G76">
-        <v>0.09342274207679044</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.03363080778491245</v>
+      </c>
+      <c r="H76">
+        <v>0.05087309809702098</v>
+      </c>
+      <c r="I76">
+        <v>0.1314155883838644</v>
+      </c>
+      <c r="J76">
+        <v>0.04518096266956165</v>
+      </c>
+      <c r="K76">
+        <v>0.005969774803026693</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.09010711202445409</v>
+        <v>-0.0742618872280139</v>
       </c>
       <c r="C77">
-        <v>0.0135716382557782</v>
+        <v>-0.02913720108040764</v>
       </c>
       <c r="D77">
-        <v>-0.04562059794151407</v>
+        <v>-0.02146598377559067</v>
       </c>
       <c r="E77">
-        <v>0.05590977311084296</v>
+        <v>0.01511337078543577</v>
       </c>
       <c r="F77">
-        <v>0.1428200829975367</v>
+        <v>-0.03564948825878711</v>
       </c>
       <c r="G77">
-        <v>-0.1830653798230369</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.04977070061754817</v>
+      </c>
+      <c r="H77">
+        <v>-0.2185226460376103</v>
+      </c>
+      <c r="I77">
+        <v>-0.1543105909337042</v>
+      </c>
+      <c r="J77">
+        <v>0.04020452659302241</v>
+      </c>
+      <c r="K77">
+        <v>0.2331077148114914</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.2165681594627074</v>
+        <v>-0.1519432590100303</v>
       </c>
       <c r="C78">
-        <v>-0.07182941999829752</v>
+        <v>-0.09486726604115173</v>
       </c>
       <c r="D78">
-        <v>-0.06784264057092428</v>
+        <v>0.1019769630934269</v>
       </c>
       <c r="E78">
-        <v>0.1812054554753802</v>
+        <v>-0.2094081463118299</v>
       </c>
       <c r="F78">
-        <v>-0.03599229588072817</v>
+        <v>-0.139283509687486</v>
       </c>
       <c r="G78">
-        <v>-0.1294662155124987</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.6851355361732953</v>
+      </c>
+      <c r="H78">
+        <v>-0.5390099308988208</v>
+      </c>
+      <c r="I78">
+        <v>0.2099510799869461</v>
+      </c>
+      <c r="J78">
+        <v>-0.0715714222716228</v>
+      </c>
+      <c r="K78">
+        <v>0.01847893113896228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1353814021276104</v>
+        <v>-0.1372030780166596</v>
       </c>
       <c r="C79">
-        <v>-0.01122668120916242</v>
+        <v>-0.0435766809090672</v>
       </c>
       <c r="D79">
-        <v>-0.0003952666349666373</v>
+        <v>-0.008924406013705276</v>
       </c>
       <c r="E79">
-        <v>-0.01883538130141891</v>
+        <v>0.01329386047313214</v>
       </c>
       <c r="F79">
-        <v>-0.1621564964853249</v>
+        <v>0.0005402866831000078</v>
       </c>
       <c r="G79">
-        <v>0.009682166685460809</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.04340694814521911</v>
+      </c>
+      <c r="H79">
+        <v>0.0533237865070029</v>
+      </c>
+      <c r="I79">
+        <v>0.1549359929013326</v>
+      </c>
+      <c r="J79">
+        <v>0.06852048917548317</v>
+      </c>
+      <c r="K79">
+        <v>0.06128187290247874</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.03443998332594605</v>
+        <v>-0.06214918101897388</v>
       </c>
       <c r="C80">
-        <v>-0.009350388020979891</v>
+        <v>-0.03991472059635806</v>
       </c>
       <c r="D80">
-        <v>-0.01859076830234986</v>
+        <v>0.03886381064224239</v>
       </c>
       <c r="E80">
-        <v>-0.02773910097785922</v>
+        <v>0.06048055512534553</v>
       </c>
       <c r="F80">
-        <v>0.02033184041004987</v>
+        <v>0.005575045821450801</v>
       </c>
       <c r="G80">
-        <v>-0.06214684125540854</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.01305915666231354</v>
+      </c>
+      <c r="H80">
+        <v>-0.07367087064179775</v>
+      </c>
+      <c r="I80">
+        <v>0.0117128674267262</v>
+      </c>
+      <c r="J80">
+        <v>0.03642252237784516</v>
+      </c>
+      <c r="K80">
+        <v>-0.1671841501300801</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.1089853202602067</v>
+        <v>-0.132498900133507</v>
       </c>
       <c r="C81">
-        <v>-0.007810165648308946</v>
+        <v>-0.04940840598291261</v>
       </c>
       <c r="D81">
-        <v>-0.01117777488532999</v>
+        <v>0.005743737771966627</v>
       </c>
       <c r="E81">
-        <v>-0.01534875544835565</v>
+        <v>0.01361069023615852</v>
       </c>
       <c r="F81">
-        <v>-0.1371903409401733</v>
+        <v>-0.0123202706388952</v>
       </c>
       <c r="G81">
-        <v>0.0416425431384177</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.05517917573260236</v>
+      </c>
+      <c r="H81">
+        <v>0.0287980842377026</v>
+      </c>
+      <c r="I81">
+        <v>0.150333256925114</v>
+      </c>
+      <c r="J81">
+        <v>0.03338883780471268</v>
+      </c>
+      <c r="K81">
+        <v>0.008387396565864336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1088847215705072</v>
+        <v>-0.1454418212103138</v>
       </c>
       <c r="C82">
-        <v>-0.02781151906974963</v>
+        <v>-0.04473620555093309</v>
       </c>
       <c r="D82">
-        <v>-0.05638647955518269</v>
+        <v>-0.0004521078487543103</v>
       </c>
       <c r="E82">
-        <v>-0.05807431984492725</v>
+        <v>0.06380122793847605</v>
       </c>
       <c r="F82">
-        <v>-0.2083552132568388</v>
+        <v>-0.002129654735754499</v>
       </c>
       <c r="G82">
-        <v>0.01199763394759313</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.06607030364144009</v>
+      </c>
+      <c r="H82">
+        <v>0.1136754073964187</v>
+      </c>
+      <c r="I82">
+        <v>0.2679457827233035</v>
+      </c>
+      <c r="J82">
+        <v>0.01582740371783931</v>
+      </c>
+      <c r="K82">
+        <v>-0.03974748792178074</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.1050781259855525</v>
+        <v>-0.09347338287258794</v>
       </c>
       <c r="C83">
-        <v>-0.05671236553021202</v>
+        <v>-0.09258637865178122</v>
       </c>
       <c r="D83">
-        <v>-0.05641211913561626</v>
+        <v>-0.007914672024462849</v>
       </c>
       <c r="E83">
-        <v>-0.02275480447398218</v>
+        <v>0.004073131147266262</v>
       </c>
       <c r="F83">
-        <v>0.08363469890475062</v>
+        <v>-0.01488192787858003</v>
       </c>
       <c r="G83">
-        <v>-0.07730156232902453</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.03098183453419745</v>
+      </c>
+      <c r="H83">
+        <v>-0.08194209422033456</v>
+      </c>
+      <c r="I83">
+        <v>-0.03375915439786919</v>
+      </c>
+      <c r="J83">
+        <v>0.1475849392384523</v>
+      </c>
+      <c r="K83">
+        <v>-0.1053162386670846</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.04989285670836605</v>
+        <v>-0.05658526287542233</v>
       </c>
       <c r="C84">
-        <v>-0.01948069482813127</v>
+        <v>0.01277408719000222</v>
       </c>
       <c r="D84">
-        <v>0.04938725229867211</v>
+        <v>-0.02403503731215697</v>
       </c>
       <c r="E84">
-        <v>0.02411265243977791</v>
+        <v>0.02807150288097261</v>
       </c>
       <c r="F84">
-        <v>-0.01263527948875014</v>
+        <v>0.01291443711304866</v>
       </c>
       <c r="G84">
-        <v>0.03777697495944346</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.05166212013782467</v>
+      </c>
+      <c r="H84">
+        <v>0.01194008059958936</v>
+      </c>
+      <c r="I84">
+        <v>-0.07340153881673678</v>
+      </c>
+      <c r="J84">
+        <v>-0.3581310388481465</v>
+      </c>
+      <c r="K84">
+        <v>-0.1431120307570095</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.09994541194563236</v>
+        <v>-0.1186656569467705</v>
       </c>
       <c r="C85">
-        <v>-0.01980916128242469</v>
+        <v>-0.0354521416863954</v>
       </c>
       <c r="D85">
-        <v>-0.02424240317357969</v>
+        <v>-0.004225177921561854</v>
       </c>
       <c r="E85">
-        <v>-0.02197365897456469</v>
+        <v>0.03248198228886624</v>
       </c>
       <c r="F85">
-        <v>-0.1930217454467046</v>
+        <v>-0.01902889333852129</v>
       </c>
       <c r="G85">
-        <v>0.02161207424750705</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.03767851158917654</v>
+      </c>
+      <c r="H85">
+        <v>0.03514151381774824</v>
+      </c>
+      <c r="I85">
+        <v>0.1927207066499536</v>
+      </c>
+      <c r="J85">
+        <v>0.06317882957572352</v>
+      </c>
+      <c r="K85">
+        <v>0.04733410699767607</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.06960577010301461</v>
+        <v>-0.1309309040658038</v>
       </c>
       <c r="C86">
-        <v>-0.02235542677394135</v>
+        <v>-0.01232700740002704</v>
       </c>
       <c r="D86">
-        <v>-0.04987355816556127</v>
+        <v>-0.9081831757787833</v>
       </c>
       <c r="E86">
-        <v>0.05627613568896167</v>
+        <v>-0.2784616148109262</v>
       </c>
       <c r="F86">
-        <v>0.01489230353720318</v>
+        <v>0.1028838382507076</v>
       </c>
       <c r="G86">
-        <v>-0.1035082982599153</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.05082675923903379</v>
+      </c>
+      <c r="H86">
+        <v>-0.08609922408969495</v>
+      </c>
+      <c r="I86">
+        <v>0.05742327372940417</v>
+      </c>
+      <c r="J86">
+        <v>-0.05290347427769007</v>
+      </c>
+      <c r="K86">
+        <v>-0.05417312550861567</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.1043328882037854</v>
+        <v>-0.1200194278584183</v>
       </c>
       <c r="C87">
-        <v>-0.05874301291292262</v>
+        <v>-0.09602762165781072</v>
       </c>
       <c r="D87">
-        <v>-0.01768504291246212</v>
+        <v>-0.01080077016271309</v>
       </c>
       <c r="E87">
-        <v>0.06162076522332183</v>
+        <v>0.01634034812889082</v>
       </c>
       <c r="F87">
-        <v>0.02491690171568434</v>
+        <v>-0.02462834956351327</v>
       </c>
       <c r="G87">
-        <v>-0.1084960258018833</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.06291927631415185</v>
+      </c>
+      <c r="H87">
+        <v>-0.125180713581542</v>
+      </c>
+      <c r="I87">
+        <v>-0.1306363841076219</v>
+      </c>
+      <c r="J87">
+        <v>0.07595405972662762</v>
+      </c>
+      <c r="K87">
+        <v>0.04085500361237217</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.06850900198207305</v>
+        <v>-0.05803009890990075</v>
       </c>
       <c r="C88">
-        <v>-0.03703295662062815</v>
+        <v>-0.04154320791070255</v>
       </c>
       <c r="D88">
-        <v>-0.02136714855138347</v>
+        <v>0.01294364375025278</v>
       </c>
       <c r="E88">
-        <v>0.01082121971040157</v>
+        <v>0.04830880317252679</v>
       </c>
       <c r="F88">
-        <v>-0.004413828935523878</v>
+        <v>0.01598385220483113</v>
       </c>
       <c r="G88">
-        <v>-0.06043738547868477</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02389615216177946</v>
+      </c>
+      <c r="H88">
+        <v>-0.02294710441171901</v>
+      </c>
+      <c r="I88">
+        <v>-0.004259462359023128</v>
+      </c>
+      <c r="J88">
+        <v>-0.003630712454638814</v>
+      </c>
+      <c r="K88">
+        <v>-0.0164950703270598</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.09429242111212652</v>
+        <v>-0.156296480641812</v>
       </c>
       <c r="C89">
-        <v>0.3693589030681543</v>
+        <v>0.3729273896631894</v>
       </c>
       <c r="D89">
-        <v>-0.1115226360462889</v>
+        <v>0.01708452450770414</v>
       </c>
       <c r="E89">
-        <v>0.01665122633336745</v>
+        <v>0.006658795307354777</v>
       </c>
       <c r="F89">
-        <v>0.06164707228066862</v>
+        <v>-0.06945216607871527</v>
       </c>
       <c r="G89">
-        <v>-0.01040862525984867</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.01815279849611446</v>
+      </c>
+      <c r="H89">
+        <v>-0.03792529972071485</v>
+      </c>
+      <c r="I89">
+        <v>-0.02139909035148891</v>
+      </c>
+      <c r="J89">
+        <v>-0.01640853906380108</v>
+      </c>
+      <c r="K89">
+        <v>-0.07811384659273132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.07580555624221581</v>
+        <v>-0.1208977839387382</v>
       </c>
       <c r="C90">
-        <v>0.2940721094302736</v>
+        <v>0.285670496697894</v>
       </c>
       <c r="D90">
-        <v>-0.05256402132288766</v>
+        <v>0.0005366468944691425</v>
       </c>
       <c r="E90">
-        <v>0.04446863655604811</v>
+        <v>0.02902273675811319</v>
       </c>
       <c r="F90">
-        <v>0.0523875937024872</v>
+        <v>-0.00551164556466398</v>
       </c>
       <c r="G90">
-        <v>-0.0480123072320841</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.03514751906348255</v>
+      </c>
+      <c r="H90">
+        <v>-0.03656358138921328</v>
+      </c>
+      <c r="I90">
+        <v>-0.05108754232371854</v>
+      </c>
+      <c r="J90">
+        <v>-0.05153968753890871</v>
+      </c>
+      <c r="K90">
+        <v>0.01933567353223239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.08381378402637324</v>
+        <v>-0.08379103636535594</v>
       </c>
       <c r="C91">
-        <v>-0.02053617351246749</v>
+        <v>-0.03481991260246887</v>
       </c>
       <c r="D91">
-        <v>-0.003572350127387435</v>
+        <v>-0.01282718767894071</v>
       </c>
       <c r="E91">
-        <v>-0.01613929207085049</v>
+        <v>0.01158388849636811</v>
       </c>
       <c r="F91">
-        <v>-0.07589988322386965</v>
+        <v>-0.01441831403964855</v>
       </c>
       <c r="G91">
-        <v>0.06865948273449488</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.009544073450823306</v>
+      </c>
+      <c r="H91">
+        <v>0.05296817312662969</v>
+      </c>
+      <c r="I91">
+        <v>0.1137483558319404</v>
+      </c>
+      <c r="J91">
+        <v>0.04306313474782978</v>
+      </c>
+      <c r="K91">
+        <v>0.01311188645076232</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.07145015201787001</v>
+        <v>-0.1298525004598728</v>
       </c>
       <c r="C92">
-        <v>0.3380878428363345</v>
+        <v>0.3372836373939078</v>
       </c>
       <c r="D92">
-        <v>-0.07557060097858061</v>
+        <v>0.019260237148264</v>
       </c>
       <c r="E92">
-        <v>0.02110052103423894</v>
+        <v>-0.001413864025385475</v>
       </c>
       <c r="F92">
-        <v>0.04078325553665953</v>
+        <v>-0.0417440908356939</v>
       </c>
       <c r="G92">
-        <v>0.02920495599016399</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.005287224655544904</v>
+      </c>
+      <c r="H92">
+        <v>-0.06701802574011739</v>
+      </c>
+      <c r="I92">
+        <v>0.03144684957134979</v>
+      </c>
+      <c r="J92">
+        <v>-0.02142921214797606</v>
+      </c>
+      <c r="K92">
+        <v>-0.006264526116097779</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.08643829031718195</v>
+        <v>-0.1250727512882708</v>
       </c>
       <c r="C93">
-        <v>0.2932344183650355</v>
+        <v>0.3155107026261997</v>
       </c>
       <c r="D93">
-        <v>-0.05086296083674113</v>
+        <v>-0.01775853995295624</v>
       </c>
       <c r="E93">
-        <v>0.01090875907530409</v>
+        <v>0.04738357164357775</v>
       </c>
       <c r="F93">
-        <v>0.02460800405434822</v>
+        <v>0.006189099190456707</v>
       </c>
       <c r="G93">
-        <v>0.01650573262071213</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03124203898797152</v>
+      </c>
+      <c r="H93">
+        <v>-0.001200508565867998</v>
+      </c>
+      <c r="I93">
+        <v>-0.02385210794755677</v>
+      </c>
+      <c r="J93">
+        <v>-0.01518584012765179</v>
+      </c>
+      <c r="K93">
+        <v>0.0100189483564225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.09249318970482547</v>
+        <v>-0.1264500467177028</v>
       </c>
       <c r="C94">
-        <v>-0.04583026617641114</v>
+        <v>-0.05592298427717207</v>
       </c>
       <c r="D94">
-        <v>0.006838442889447537</v>
+        <v>0.02760145026323886</v>
       </c>
       <c r="E94">
-        <v>-0.004639070220159191</v>
+        <v>0.01123809773350158</v>
       </c>
       <c r="F94">
-        <v>-0.1232340786185554</v>
+        <v>-0.02343221795297797</v>
       </c>
       <c r="G94">
-        <v>0.06692429252843142</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.01609691158800377</v>
+      </c>
+      <c r="H94">
+        <v>0.08431561599670896</v>
+      </c>
+      <c r="I94">
+        <v>0.1360329585158761</v>
+      </c>
+      <c r="J94">
+        <v>0.002984705442850446</v>
+      </c>
+      <c r="K94">
+        <v>0.01352068548210166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1380820656863716</v>
+        <v>-0.1195368285161241</v>
       </c>
       <c r="C95">
-        <v>-0.07181865917729761</v>
+        <v>-0.05107518342572692</v>
       </c>
       <c r="D95">
-        <v>-0.06713966789531922</v>
+        <v>0.01158923622686669</v>
       </c>
       <c r="E95">
-        <v>0.03077628989311448</v>
+        <v>0.01087673753838814</v>
       </c>
       <c r="F95">
-        <v>0.05362205101126008</v>
+        <v>-0.06685423714213053</v>
       </c>
       <c r="G95">
-        <v>-0.09800480696026831</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.007762802155717318</v>
+      </c>
+      <c r="H95">
+        <v>-0.1261711893343019</v>
+      </c>
+      <c r="I95">
+        <v>-0.2136450497676593</v>
+      </c>
+      <c r="J95">
+        <v>0.001118056385793603</v>
+      </c>
+      <c r="K95">
+        <v>-0.1889142353757109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.009240530629282939</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.0001184578002779165</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.001140726494782398</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.006250306140198187</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.00275804466577966</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>0.007225929278156188</v>
+      </c>
+      <c r="H96">
+        <v>-0.01597414834337583</v>
+      </c>
+      <c r="I96">
+        <v>-0.01157231405229919</v>
+      </c>
+      <c r="J96">
+        <v>0.009950157034722221</v>
+      </c>
+      <c r="K96">
+        <v>0.02026894188494768</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.201371091031046</v>
+        <v>-0.1876994866426613</v>
       </c>
       <c r="C97">
-        <v>0.1537696434110675</v>
+        <v>-0.00153192103280475</v>
       </c>
       <c r="D97">
-        <v>0.9014559548280612</v>
+        <v>0.2881475537245919</v>
       </c>
       <c r="E97">
-        <v>0.02871045986737078</v>
+        <v>-0.6369190721956401</v>
       </c>
       <c r="F97">
-        <v>0.04113418231114</v>
+        <v>0.6381269833925446</v>
       </c>
       <c r="G97">
-        <v>-0.03848198450893757</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.04624545154124855</v>
+      </c>
+      <c r="H97">
+        <v>0.101170157491834</v>
+      </c>
+      <c r="I97">
+        <v>-0.05913597104887026</v>
+      </c>
+      <c r="J97">
+        <v>-0.05837639112893284</v>
+      </c>
+      <c r="K97">
+        <v>-0.02529867550155785</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.3201661964984213</v>
+        <v>-0.2697763169199499</v>
       </c>
       <c r="C98">
-        <v>-0.07274702994168727</v>
+        <v>-0.06517270927373695</v>
       </c>
       <c r="D98">
-        <v>-0.05013226384191102</v>
+        <v>-0.02983002949859894</v>
       </c>
       <c r="E98">
-        <v>-0.2445308171044541</v>
+        <v>0.013891344101625</v>
       </c>
       <c r="F98">
-        <v>0.2236178439285317</v>
+        <v>-0.04691185134789661</v>
       </c>
       <c r="G98">
-        <v>0.2854079229915086</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.2363352056884881</v>
+      </c>
+      <c r="H98">
+        <v>0.2686149214377085</v>
+      </c>
+      <c r="I98">
+        <v>-0.0886160558708313</v>
+      </c>
+      <c r="J98">
+        <v>0.2573057376630749</v>
+      </c>
+      <c r="K98">
+        <v>-0.5387366600905701</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.08365133367648604</v>
+        <v>-0.05564295743697091</v>
       </c>
       <c r="C99">
-        <v>-0.02802916458746617</v>
+        <v>-0.01158151590641583</v>
       </c>
       <c r="D99">
-        <v>-0.01006852844992063</v>
+        <v>0.03509715831084968</v>
       </c>
       <c r="E99">
-        <v>-0.01594354001447123</v>
+        <v>0.005729127205485368</v>
       </c>
       <c r="F99">
-        <v>-0.006286537658129484</v>
+        <v>-0.03079474539202777</v>
       </c>
       <c r="G99">
-        <v>-0.01454189151950521</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.01380680890734497</v>
+      </c>
+      <c r="H99">
+        <v>-0.005812914398574509</v>
+      </c>
+      <c r="I99">
+        <v>0.01690235762408178</v>
+      </c>
+      <c r="J99">
+        <v>-0.01663529016376987</v>
+      </c>
+      <c r="K99">
+        <v>0.01438192263786664</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.0210237898204045</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.03546018863721967</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.09328011344512642</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.04036116007354751</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.04371315396900377</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>-0.05965506613233805</v>
+      </c>
+      <c r="H100">
+        <v>0.008807857473034249</v>
+      </c>
+      <c r="I100">
+        <v>0.04444884741671472</v>
+      </c>
+      <c r="J100">
+        <v>0.03092211590580884</v>
+      </c>
+      <c r="K100">
+        <v>-0.2176422141835452</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.05842179415391523</v>
+        <v>-0.04116294316370778</v>
       </c>
       <c r="C101">
-        <v>-0.006622915904103934</v>
+        <v>-0.01810700367362081</v>
       </c>
       <c r="D101">
-        <v>-0.03029844110371762</v>
+        <v>0.004768999088581918</v>
       </c>
       <c r="E101">
-        <v>0.04286155384707013</v>
+        <v>0.03224253513673743</v>
       </c>
       <c r="F101">
-        <v>-0.03624111612860855</v>
+        <v>-0.01228197147546447</v>
       </c>
       <c r="G101">
-        <v>-0.03947746309834204</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.09205162347198294</v>
+      </c>
+      <c r="H101">
+        <v>-0.05040872675286982</v>
+      </c>
+      <c r="I101">
+        <v>0.003590605725347579</v>
+      </c>
+      <c r="J101">
+        <v>0.05427053076212051</v>
+      </c>
+      <c r="K101">
+        <v>-0.04672456239200221</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
